--- a/hiqu/Performance Evaluation/September 2024/QA/Ayesha Qurban.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Ayesha Qurban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B67B4-8A27-49CE-A907-E47F19EF4D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87A3E3-015A-4C19-A635-AE3373077C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Employee Name</t>
   </si>
@@ -270,12 +270,6 @@
     <t>Testing and Verification</t>
   </si>
   <si>
-    <t>QA Verification</t>
-  </si>
-  <si>
-    <t>Internal Meetings</t>
-  </si>
-  <si>
     <t>Meetings</t>
   </si>
   <si>
@@ -292,6 +286,33 @@
   </si>
   <si>
     <t>2024-25</t>
+  </si>
+  <si>
+    <t>AP WORKFLOW</t>
+  </si>
+  <si>
+    <t>Analysis of the new project/assignment/task</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Ability to automatically attach additional documents to Invoice</t>
+  </si>
+  <si>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Regular testing and QA new project/assignment/task</t>
+  </si>
+  <si>
+    <t>NEXELUS 2024.2</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -301,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +402,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -559,7 +586,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -568,9 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,14 +629,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,10 +698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,30 +1057,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1064,11 +1088,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1076,11 +1100,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1088,11 +1112,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1100,11 +1124,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -1112,322 +1136,326 @@
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="36">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>2.5534246575342467</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+        <v>2.6054794520547944</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="16" t="s">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="25">
         <v>0.8</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="50">
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="25">
         <v>0.8</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="51">
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="25">
         <v>0.8</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="50">
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="25">
         <v>0.6</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="51">
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="25">
         <v>0.8</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="50">
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="25">
         <v>0.7</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="51">
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="25">
         <v>0.8</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="50">
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="25">
         <v>0.8</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="51">
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="25">
         <v>0.8</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="50">
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="25">
         <v>0.8</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="51">
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="26">
         <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="25">
         <v>0.8</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="50">
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="25">
         <v>0.8</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="51">
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="26">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="25">
         <v>0.8</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="50">
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25">
         <v>0.7</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="51">
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="26">
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="25">
         <v>0.8</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="50"/>
-      <c r="J23" s="37" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="25"/>
+      <c r="J23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="51">
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="26">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1439,14 +1467,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="C29" s="2">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>17</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1458,14 +1490,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1477,14 +1513,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1496,14 +1536,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1515,14 +1559,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1534,14 +1582,18 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1553,14 +1605,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
+      <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1701,317 +1757,498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="5" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="5" customWidth="1"/>
-    <col min="15" max="17" width="9.28515625" style="5"/>
-    <col min="18" max="18" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="5" customWidth="1"/>
+    <col min="18" max="20" width="9.28515625" style="5"/>
+    <col min="21" max="21" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="J6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="L6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="45"/>
       <c r="M6" s="46"/>
-      <c r="O6" s="44" t="s">
+      <c r="N6" s="47"/>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="26" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="T7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="U7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1"/>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>48</v>
-      </c>
-      <c r="M9" s="7">
-        <f>K9-L9</f>
-        <v>-48</v>
-      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="2">
-        <v>13</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <f>SUM(O9:Q9)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
+      <c r="P9" s="6">
+        <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="7">
-        <f>K10-L10</f>
+      <c r="M10" s="2"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="6"/>
+      <c r="P11" s="6">
+        <f>D11+E11+F11+G11+H11+I11+J11+M11</f>
+        <v>38</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="6"/>
+      <c r="P13" s="6">
+        <f>D13+E13+F13+G13+H13+I13+J13+M13</f>
+        <v>15</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>66</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="P14" s="6">
+        <f>D14+E14+F14+G14+H14+I14+J14+M14</f>
+        <v>66</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6"/>
+      <c r="P16" s="6">
+        <f>D16+E16+F16+G16+H16+I16+J16+M16</f>
+        <v>22</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:J18" si="0">SUM(D8:D17)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <f t="shared" ref="E12:I12" si="0">SUM(E8:E10)</f>
-        <v>5</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="14">
-        <f t="shared" si="0"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13">
+        <f>SUM(L8:L17)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <f>SUM(K8:K11)</f>
+      <c r="M18" s="13">
+        <f>SUM(M8:M17)</f>
+        <v>66</v>
+      </c>
+      <c r="N18" s="13">
+        <f>SUM(N8:N17)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="14">
-        <f>SUM(L8:L11)</f>
-        <v>48</v>
-      </c>
-      <c r="M12" s="14">
-        <f>SUM(M8:M11)</f>
-        <v>-48</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <f>SUM(O8:O11)</f>
-        <v>13</v>
-      </c>
-      <c r="P12" s="14">
-        <f>SUM(P8:P11)</f>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13">
+        <f>SUM(P8:P17)</f>
+        <v>146</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13">
+        <f>SUM(R8:R17)</f>
+        <v>15</v>
+      </c>
+      <c r="S18" s="13">
+        <f>SUM(S8:S17)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="14">
-        <f>SUM(Q8:Q11)</f>
+      <c r="T18" s="13">
+        <f>SUM(T8:T17)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="14">
-        <f>SUM(R8:R11)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="U18" s="13">
+        <f>SUM(U8:U17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="expression" priority="3">
-      <formula>O9/$R9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hiqu/Performance Evaluation/September 2024/QA/Ayesha Qurban.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Ayesha Qurban.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87A3E3-015A-4C19-A635-AE3373077C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ACC480-76A5-47A7-85B4-29499F501399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Employee Name</t>
   </si>
@@ -313,6 +314,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -405,8 +418,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -586,7 +599,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -622,7 +635,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -642,34 +654,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,6 +698,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1043,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,599 +1060,353 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="C2" s="31"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="33">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>2.6054794520547944</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+        <v>2.6136986301369864</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="26">
-        <v>0.7</v>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="26">
-        <v>0.7</v>
-      </c>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="26">
-        <v>0.7</v>
-      </c>
+      <c r="B18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="26">
-        <v>0.7</v>
-      </c>
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="26">
-        <v>0.7</v>
-      </c>
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="26">
-        <v>0.8</v>
-      </c>
+      <c r="B21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="26">
-        <v>0.8</v>
-      </c>
+      <c r="B22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="25"/>
-      <c r="J23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="26">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1656,9 +1414,433 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B14:N14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DC5E4E-FD08-4DBC-ACD4-5233127E6602}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DBA87961-331F-4262-B96F-5DDBF3210EB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F17256EC-FC29-4657-8FE4-3C0D945400DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3D108085-0AC4-4EA0-8AE1-42E4B448586B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1DDDC86A-244C-4AB5-B139-7657251EC385}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{932DE8EF-7065-4FE3-BC61-96D6A1A5D971}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8414D5D8-7E8C-4085-A03D-7582A525B2E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1667,12 +1849,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8627733F-CCEB-442C-8F70-AD126F47663E}</x14:id>
+          <x14:id>{7B51EA11-170A-4E0E-BC0B-69B4CB41E39E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
+  <conditionalFormatting sqref="C18:C25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1681,12 +1863,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D1C21BE-0913-44E1-92AB-9BBF6C8321BC}</x14:id>
+          <x14:id>{9E1286F5-262E-4BC6-ADE4-F4FBF2829A7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
+  <conditionalFormatting sqref="C30:C37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1695,7 +1877,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C254B6A-715F-4E49-91F4-2CA1640D0388}</x14:id>
+          <x14:id>{B0D4E5C5-3473-4634-AD33-DD54EE214CD2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1705,7 +1887,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8627733F-CCEB-442C-8F70-AD126F47663E}">
+          <x14:cfRule type="dataBar" id="{DBA87961-331F-4262-B96F-5DDBF3210EB3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1717,10 +1899,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D1C21BE-0913-44E1-92AB-9BBF6C8321BC}">
+          <x14:cfRule type="dataBar" id="{F17256EC-FC29-4657-8FE4-3C0D945400DA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1732,10 +1914,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>D18:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C254B6A-715F-4E49-91F4-2CA1640D0388}">
+          <x14:cfRule type="dataBar" id="{3D108085-0AC4-4EA0-8AE1-42E4B448586B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1747,7 +1929,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1DDDC86A-244C-4AB5-B139-7657251EC385}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{932DE8EF-7065-4FE3-BC61-96D6A1A5D971}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8414D5D8-7E8C-4085-A03D-7582A525B2E2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B51EA11-170A-4E0E-BC0B-69B4CB41E39E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E1286F5-262E-4BC6-ADE4-F4FBF2829A7F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0D4E5C5-3473-4634-AD33-DD54EE214CD2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1755,12 +2027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,76 +2056,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -1862,54 +2134,54 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
       <c r="P6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="47"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +2208,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="2"/>
@@ -1956,8 +2228,8 @@
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="2"/>
@@ -1982,7 +2254,7 @@
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="2"/>
@@ -2002,8 +2274,8 @@
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="2"/>
@@ -2028,7 +2300,7 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="2"/>
@@ -2042,16 +2314,14 @@
       <c r="M12" s="2"/>
       <c r="N12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="R12" s="2">
-        <v>15</v>
-      </c>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="2"/>
@@ -2078,8 +2348,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="2"/>
@@ -2098,13 +2368,18 @@
         <f>D14+E14+F14+G14+H14+I14+J14+M14</f>
         <v>66</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="6"/>
+      <c r="U14" s="6">
+        <f>SUM(R14:T14)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="2"/>
@@ -2124,8 +2399,8 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="2"/>
@@ -2150,8 +2425,8 @@
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2234,7 +2509,7 @@
       </c>
       <c r="U18" s="13">
         <f>SUM(U8:U17)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
